--- a/report.xlsx
+++ b/report.xlsx
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,19 +589,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>44718.38194444445</v>
+        <v>44720.68055555555</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>9초소</t>
+          <t>상황실</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -616,17 +616,17 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>안경(9초소 카약장 북측입구 에서 습득)</t>
+          <t>힙색(내용물: 휴대폰) 인수인계 받음</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>각 초소 내용전파(9초소 보관中)</t>
+          <t>상황실 보관중</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -636,26 +636,30 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>09:10 9초소 습득물 안경(9초소 카약장 북측입구 에서 습득) → 각 초소 내용전파(9초소 보관中)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr"/>
+          <t>16:20 상황실 습득물 힙색(내용물: 휴대폰) 인수인계 받음 → 상황실 보관중</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>16:20  생활업무 습득물 상황실 힙색(내용물: 휴대폰) 인수인계 받음 → 상황실 보관중</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>44718.42222222222</v>
+        <v>44720.68055555555</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>2초소</t>
+          <t>상황실</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -665,22 +669,22 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>차량 문열림</t>
+          <t>보관품</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>41주 5944 (113-1702, 010-7531-9978) 창문이 열려있음</t>
+          <t>입실 예정자 보관품(가방) 인수인계 받음</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>차주와 통화후 처리완료</t>
+          <t>상황실 보관중 -&gt; 17:19 찾아감</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -690,51 +694,55 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>10:08 2초소 차량 문열림 41주 5944 (113-1702, 010-7531-9978) 창문이 열려있음 → 차주와 통화후 처리완료</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr"/>
+          <t>16:20 상황실 보관품 입실 예정자 보관품(가방) 인수인계 받음 → 상황실 보관중 -&gt; 17:19 찾아감</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>16:20  생활업무 보관품 상황실 입실 예정자 보관품(가방) 인수인계 받음 → 상황실 보관중 -&gt; 17:19 찾아감</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44718.44236111111</v>
+        <v>44720.68402777778</v>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>134-503</t>
+          <t>140-1호기</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>관제업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>홈넷</t>
+          <t>오물</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>비상_안방</t>
+          <t>승강기내에 오물이 있다는 민원(민원인: 010-3543-2550)</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>9초소 허명대원 출동 -&gt; 입주민 오작동</t>
+          <t>9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -744,51 +752,55 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>10:37 134-503 홈넷 비상_안방 → 9초소 허명대원 출동 -&gt; 입주민 오작동</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr"/>
+          <t>16:25 140-1호기 오물 승강기내에 오물이 있다는 민원(민원인: 010-3543-2550) → 9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>16:25  민원업무 오물 140-1호기 승강기내에 오물이 있다는 민원(민원인: 010-3543-2550) → 9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44718.44791666666</v>
+        <v>44720.68958333333</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>133-1202</t>
+          <t>122-1001</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>관제업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>홈넷</t>
+          <t>층간소음</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>비상_안방</t>
+          <t>위층에 아이들이 뛰어서 소음이 심하다는 민원</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>IP확인결과 -&gt; 기기 오작동</t>
+          <t>1101호 세대 통화 -&gt; 자제요청</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -798,52 +810,55 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>10:45 133-1202 홈넷 비상_안방 → IP확인결과 -&gt; 기기 오작동</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr"/>
+          <t>16:33 122-1001 층간소음 위층에 아이들이 뛰어서 소음이 심하다는 민원 → 1101호 세대 통화 -&gt; 자제요청</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>16:33  민원업무 층간소음 122-1001 위층에 아이들이 뛰어서 소음이 심하다는 민원 → 1101호 세대 통화 -&gt; 자제요청</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>44718.45347222222</v>
+        <v>44720.70069444444</v>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>123-503</t>
+          <t>134-1203</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>분실물</t>
+          <t>홈넷</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>헌옷수거함에 지갑이 들어갔다고함(010-5037-2776)
-(헌옷수거 차량 : 권인수 차량번호 2021 TEL 010-4050-7630</t>
+          <t>비상_안방</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>잠시후 찾았다는 연락옴</t>
+          <t>IP 연락 -&gt; 입주민 오작동</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -853,52 +868,55 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>10:53 123-503 분실물 헌옷수거함에 지갑이 들어갔다고함(010-5037-2776)
-(헌옷수거 차량 : 권인수 차량번호 2021 TEL 010-4050-7630 → 잠시후 찾았다는 연락옴</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr"/>
+          <t>16:49 134-1203 홈넷 비상_안방 → IP 연락 -&gt; 입주민 오작동</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>16:49  관제업무 홈넷 134-1203 비상_안방 → IP 연락 -&gt; 입주민 오작동</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>44718.46180555555</v>
+        <v>44720.72013888889</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>135-503</t>
+          <t>134-2302</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>분실물</t>
+          <t>CCTV</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>자이안센터(골프연습장)에서 애플워치(자주색) 분실 - 6/5일 오후경</t>
+          <t>6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581)</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>자이안센터 운영팀으로 문의하시라고 안내</t>
+          <t>CCTV 열람결과 민원인에 내용전달</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>박종우</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -908,51 +926,55 @@
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>11:05 135-503 분실물 자이안센터(골프연습장)에서 애플워치(자주색) 분실 - 6/5일 오후경 → 자이안센터 운영팀으로 문의하시라고 안내</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr"/>
+          <t>17:17 134-2302 CCTV 6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581) → CCTV 열람결과 민원인에 내용전달</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>17:17  민원업무 CCTV 134-2302 6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581) → CCTV 열람결과 민원인에 내용전달</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>44718.46736111111</v>
+        <v>44720.75694444445</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>131-2001</t>
+          <t>101-301</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>관제업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>화재경보</t>
+          <t>공사소음</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>홈넷 화재경보발생</t>
+          <t>아직 공사중이라는 민원(민원인: 010-4403-8911)</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>IP통화 -&gt; 냄비태움 -&gt; 환기요청</t>
+          <t>공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -962,51 +984,55 @@
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>11:13 131-2001 화재경보 홈넷 화재경보발생 → IP통화 -&gt; 냄비태움 -&gt; 환기요청</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr"/>
+          <t>18:10 101-301 공사소음 아직 공사중이라는 민원(민원인: 010-4403-8911) → 공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>18:10  민원업무 공사소음 101-301 아직 공사중이라는 민원(민원인: 010-4403-8911) → 공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>44718.53402777778</v>
+        <v>44720.81180555555</v>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>121-103</t>
+          <t>110-1502</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>관제업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>홈넷</t>
+          <t>층간소음</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>비상_홈넷</t>
+          <t>위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>IP확인결과 -&gt; 입주민 오작동</t>
+          <t>1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -1016,51 +1042,55 @@
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>12:49 121-103 홈넷 비상_홈넷 → IP확인결과 -&gt; 입주민 오작동</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr"/>
+          <t>19:29 110-1502 층간소음 위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함 → 1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>19:29  민원업무 층간소음 110-1502 위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함 → 1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>44718.56319444445</v>
+        <v>44720.8125</v>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>116-1602</t>
+          <t>126동</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>자동차 문열림</t>
+          <t>안내방송</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>28버7451(010-4117-9415) 차량 문열림</t>
+          <t>화장실, 베란다, 주방 흡연금지 안내</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>정찬선 대원 -&gt; 차주에게 전달완료</t>
+          <t>방송완료</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -1070,51 +1100,55 @@
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>13:31 116-1602 자동차 문열림 28버7451(010-4117-9415) 차량 문열림 → 정찬선 대원 -&gt; 차주에게 전달완료</t>
-        </is>
-      </c>
-      <c r="L10" s="3" t="inlineStr"/>
+          <t>19:30 126동 안내방송 화장실, 베란다, 주방 흡연금지 안내 → 방송완료</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>19:30  관제업무 안내방송 126동 화장실, 베란다, 주방 흡연금지 안내 → 방송완료</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>44718.56944444445</v>
+        <v>44720.81736111111</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>118-1901</t>
+          <t>121동</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>자동차 문열림</t>
+          <t>애완견</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>160버3800(010-2000-0515) 차량 문열림</t>
+          <t>주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823)</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>차주와 통화후 처리완료</t>
+          <t>5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1124,64 +1158,420 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>13:40 118-1901 자동차 문열림 160버3800(010-2000-0515) 차량 문열림 → 차주와 통화후 처리완료</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr"/>
+          <t>19:37 121동 애완견 주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823) → 5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>19:37  민원업무 애완견 121동 주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823) → 5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>44718.57638888889</v>
+        <v>44720.85208333333</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>124-1203</t>
+          <t>134-201</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
+          <t>생활업무</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>복도등</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>세대현관문앞 복도등 고장</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>ERP 등록 -&gt; 기전실 연락</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>이종화</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>완료A</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>20:27 134-201 복도등 세대현관문앞 복도등 고장 → ERP 등록 -&gt; 기전실 연락</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>20:27  생활업무 복도등 134-201 세대현관문앞 복도등 고장 → ERP 등록 -&gt; 기전실 연락</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>472</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>44720.85555555556</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>104-1F</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>관제업무</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>공동현관문</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>카드키X</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>이종화</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>완료A</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>20:32 104-1F 공동현관문 카드키X → 순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>20:32  관제업무 공동현관문 104-1F 카드키X → 순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>473</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>44720.87152777778</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>20:55</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>117-2702</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>관제업무</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>홈넷</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방범_금고 </t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>기기오작동(금고없음)</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>이현석</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>완료A</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>20:55 117-2702 홈넷 방범_금고  → 기기오작동(금고없음)</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>20:55  관제업무 홈넷 117-2702 방범_금고  → 기기오작동(금고없음)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>474</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>44720.88680555556</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>21:17</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>104-1F,B1,B2</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>관제업무</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>공동현관문</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실)</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>이현석</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>완료A</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>21:17 104-1F,B1,B2 공동현관문 104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실) → 정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>21:17  관제업무 공동현관문 104-1F,B1,B2 104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실) → 정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>475</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>44720.89166666667</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>111-2702</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
           <t>민원업무</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>층간소음</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>124-1303호에서 소음이 난다는 민원(정확한 시간,날짜는 불분명)</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>6초소 정찬선 대원 출동 -&gt; 1303호 소음없고 1203는 부재중 -&gt; 초소 복귀</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>박종우</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>타는냄새</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>111-2702 주위에서 타는 냄새가 난다는 민원</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>이현석</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>완료A</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>13:50 124-1203 층간소음 124-1303호에서 소음이 난다는 민원(정확한 시간,날짜는 불분명) → 6초소 정찬선 대원 출동 -&gt; 1303호 소음없고 1203는 부재중 -&gt; 초소 복귀</t>
-        </is>
-      </c>
-      <c r="L12" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>21:24 111-2702 타는냄새 111-2702 주위에서 타는 냄새가 난다는 민원 → 2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>21:24  민원업무 타는냄새 111-2702 111-2702 주위에서 타는 냄새가 난다는 민원 → 2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>476</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>44720.92916666667</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>22:18</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>115-902</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>민원업무</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>장애인차량</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>109오 9518 차량이 장애인 구역에 주차 되었다는 민원</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>IP통화 -&gt; 이동조치 완료</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>이현석</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>완료A</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>22:18 115-902 장애인차량 109오 9518 차량이 장애인 구역에 주차 되었다는 민원 → IP통화 -&gt; 이동조치 완료</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>22:18  민원업무 장애인차량 115-902 109오 9518 차량이 장애인 구역에 주차 되었다는 민원 → IP통화 -&gt; 이동조치 완료</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>477</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>44720.93958333333</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>22:33</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>119-2402</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>관제업무</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>홈넷</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>비상_욕실</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>이현석</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>완료A</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>22:33 119-2402 홈넷 비상_욕실 → 6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>22:33  관제업무 홈넷 119-2402 비상_욕실 → 6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1304,7 +1694,7 @@
         </is>
       </c>
       <c r="B4" s="7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>1</v>
@@ -1313,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>0</v>
@@ -1417,13 +1807,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>0</v>
@@ -1451,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,11 +1899,11 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>44718.44236111111</v>
+        <v>44720.70069444444</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1528,7 +1918,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>10:37 134-503 홈넷 비상_안방 → 9초소 허명대원 출동 -&gt; 입주민 오작동</t>
+          <t>16:49 134-1203 홈넷 비상_안방 → IP 연락 -&gt; 입주민 오작동</t>
         </is>
       </c>
       <c r="F2" s="3" t="n"/>
@@ -1549,11 +1939,11 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>44718.44791666666</v>
+        <v>44720.8125</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1563,12 +1953,12 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>홈넷</t>
+          <t>안내방송</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>10:45 133-1202 홈넷 비상_안방 → IP확인결과 -&gt; 기기 오작동</t>
+          <t>19:30 126동 안내방송 화장실, 베란다, 주방 흡연금지 안내 → 방송완료</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -1589,11 +1979,11 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>44718.46736111111</v>
+        <v>44720.85555555556</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>20:32</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1603,12 +1993,12 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>화재경보</t>
+          <t>공동현관문</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>11:13 131-2001 화재경보 홈넷 화재경보발생 → IP통화 -&gt; 냄비태움 -&gt; 환기요청</t>
+          <t>20:32 104-1F 공동현관문 카드키X → 순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -1629,11 +2019,11 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>44718.53402777778</v>
+        <v>44720.87152777778</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>20:55</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1648,7 +2038,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>12:49 121-103 홈넷 비상_홈넷 → IP확인결과 -&gt; 입주민 오작동</t>
+          <t>20:55 117-2702 홈넷 방범_금고  → 기기오작동(금고없음)</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
@@ -1669,26 +2059,26 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>44718.38194444445</v>
+        <v>44720.88680555556</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>21:17</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>습득물</t>
+          <t>공동현관문</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>09:10 9초소 습득물 안경(9초소 카약장 북측입구 에서 습득) → 각 초소 내용전파(9초소 보관中)</t>
+          <t>21:17 104-1F,B1,B2 공동현관문 104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실) → 정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
@@ -1709,26 +2099,26 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>44718.42222222222</v>
+        <v>44720.93958333333</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>22:33</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>차량 문열림</t>
+          <t>홈넷</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>10:08 2초소 차량 문열림 41주 5944 (113-1702, 010-7531-9978) 창문이 열려있음 → 차주와 통화후 처리완료</t>
+          <t>22:33 119-2402 홈넷 비상_욕실 → 6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
         </is>
       </c>
       <c r="F7" s="3" t="n"/>
@@ -1749,11 +2139,11 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>44718.45347222222</v>
+        <v>44720.68055555555</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1763,13 +2153,12 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>분실물</t>
+          <t>습득물</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>10:53 123-503 분실물 헌옷수거함에 지갑이 들어갔다고함(010-5037-2776)
-(헌옷수거 차량 : 권인수 차량번호 2021 TEL 010-4050-7630 → 잠시후 찾았다는 연락옴</t>
+          <t>16:20 상황실 습득물 힙색(내용물: 휴대폰) 인수인계 받음 → 상황실 보관중</t>
         </is>
       </c>
       <c r="F8" s="3" t="n"/>
@@ -1790,11 +2179,11 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>44718.46180555555</v>
+        <v>44720.68055555555</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1804,12 +2193,12 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>분실물</t>
+          <t>보관품</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>11:05 135-503 분실물 자이안센터(골프연습장)에서 애플워치(자주색) 분실 - 6/5일 오후경 → 자이안센터 운영팀으로 문의하시라고 안내</t>
+          <t>16:20 상황실 보관품 입실 예정자 보관품(가방) 인수인계 받음 → 상황실 보관중 -&gt; 17:19 찾아감</t>
         </is>
       </c>
       <c r="F9" s="3" t="n"/>
@@ -1830,11 +2219,11 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>44718.56319444445</v>
+        <v>44720.85208333333</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1844,12 +2233,12 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>자동차 문열림</t>
+          <t>복도등</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>13:31 116-1602 자동차 문열림 28버7451(010-4117-9415) 차량 문열림 → 정찬선 대원 -&gt; 차주에게 전달완료</t>
+          <t>20:27 134-201 복도등 세대현관문앞 복도등 고장 → ERP 등록 -&gt; 기전실 연락</t>
         </is>
       </c>
       <c r="F10" s="3" t="n"/>
@@ -1870,26 +2259,26 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>44718.56944444445</v>
+        <v>44720.68402777778</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>자동차 문열림</t>
+          <t>오물</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>13:40 118-1901 자동차 문열림 160버3800(010-2000-0515) 차량 문열림 → 차주와 통화후 처리완료</t>
+          <t>16:25 140-1호기 오물 승강기내에 오물이 있다는 민원(민원인: 010-3543-2550) → 9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
         </is>
       </c>
       <c r="F11" s="3" t="n"/>
@@ -1910,11 +2299,11 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>44718.57638888889</v>
+        <v>44720.68958333333</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1929,7 +2318,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>13:50 124-1203 층간소음 124-1303호에서 소음이 난다는 민원(정확한 시간,날짜는 불분명) → 6초소 정찬선 대원 출동 -&gt; 1303호 소음없고 1203는 부재중 -&gt; 초소 복귀</t>
+          <t>16:33 122-1001 층간소음 위층에 아이들이 뛰어서 소음이 심하다는 민원 → 1101호 세대 통화 -&gt; 자제요청</t>
         </is>
       </c>
       <c r="F12" s="3" t="n"/>
@@ -1948,8 +2337,248 @@
       <c r="S12" s="3" t="n"/>
       <c r="T12" s="3" t="n"/>
     </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>44720.72013888889</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>민원업무</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>CCTV</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>17:17 134-2302 CCTV 6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581) → CCTV 열람결과 민원인에 내용전달</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="3" t="n"/>
+      <c r="R13" s="3" t="n"/>
+      <c r="S13" s="3" t="n"/>
+      <c r="T13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>44720.75694444445</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>민원업무</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>공사소음</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>18:10 101-301 공사소음 아직 공사중이라는 민원(민원인: 010-4403-8911) → 공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="3" t="n"/>
+      <c r="S14" s="3" t="n"/>
+      <c r="T14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>44720.81180555555</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>민원업무</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>층간소음</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>19:29 110-1502 층간소음 위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함 → 1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="3" t="n"/>
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>44720.81736111111</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>민원업무</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>애완견</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>19:37 121동 애완견 주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823) → 5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="3" t="n"/>
+      <c r="R16" s="3" t="n"/>
+      <c r="S16" s="3" t="n"/>
+      <c r="T16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>44720.89166666667</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>민원업무</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>타는냄새</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>21:24 111-2702 타는냄새 111-2702 주위에서 타는 냄새가 난다는 민원 → 2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="3" t="n"/>
+      <c r="S17" s="3" t="n"/>
+      <c r="T17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>44720.92916666667</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>22:18</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>민원업무</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>장애인차량</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>22:18 115-902 장애인차량 109오 9518 차량이 장애인 구역에 주차 되었다는 민원 → IP통화 -&gt; 이동조치 완료</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="n"/>
+      <c r="P18" s="3" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="n"/>
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="E1:T1"/>
     <mergeCell ref="E2:T2"/>
     <mergeCell ref="E3:T3"/>
@@ -1962,6 +2591,12 @@
     <mergeCell ref="E10:T10"/>
     <mergeCell ref="E11:T11"/>
     <mergeCell ref="E12:T12"/>
+    <mergeCell ref="E13:T13"/>
+    <mergeCell ref="E14:T14"/>
+    <mergeCell ref="E15:T15"/>
+    <mergeCell ref="E16:T16"/>
+    <mergeCell ref="E17:T17"/>
+    <mergeCell ref="E18:T18"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:F100">
     <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="관제">
@@ -1987,7 +2622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2026,16 +2661,16 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>44718.38194444445</v>
+        <v>44720.68055555555</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>9초소 안경(9초소 카약장 북측입구 에서 습득) → 각 초소 내용전파(9초소 보관中)</t>
+          <t>상황실 힙색(내용물: 휴대폰) 인수인계 받음 → 상황실 보관중</t>
         </is>
       </c>
       <c r="D2" s="3" t="n"/>
@@ -2048,16 +2683,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>44718.42222222222</v>
+        <v>44720.68055555555</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>2초소 41주 5944 (113-1702, 010-7531-9978) 창문이 열려있음 → 차주와 통화후 처리완료</t>
+          <t>상황실 입실 예정자 보관품(가방) 인수인계 받음 → 상황실 보관중 -&gt; 17:19 찾아감</t>
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
@@ -2070,16 +2705,16 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>44718.44236111111</v>
+        <v>44720.68402777778</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>134-503 비상_안방 → 9초소 허명대원 출동 -&gt; 입주민 오작동</t>
+          <t>140-1호기 승강기내에 오물이 있다는 민원(민원인: 010-3543-2550) → 9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
         </is>
       </c>
       <c r="D4" s="3" t="n"/>
@@ -2092,16 +2727,16 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>44718.44791666666</v>
+        <v>44720.68958333333</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>133-1202 비상_안방 → IP확인결과 -&gt; 기기 오작동</t>
+          <t>122-1001 위층에 아이들이 뛰어서 소음이 심하다는 민원 → 1101호 세대 통화 -&gt; 자제요청</t>
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
@@ -2114,17 +2749,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>44718.45347222222</v>
+        <v>44720.70069444444</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>123-503 헌옷수거함에 지갑이 들어갔다고함(010-5037-2776)
-(헌옷수거 차량 : 권인수 차량번호 2021 TEL 010-4050-7630 → 잠시후 찾았다는 연락옴</t>
+          <t>134-1203 비상_안방 → IP 연락 -&gt; 입주민 오작동</t>
         </is>
       </c>
       <c r="D6" s="3" t="n"/>
@@ -2137,16 +2771,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>44718.46180555555</v>
+        <v>44720.72013888889</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>135-503 자이안센터(골프연습장)에서 애플워치(자주색) 분실 - 6/5일 오후경 → 자이안센터 운영팀으로 문의하시라고 안내</t>
+          <t>134-2302 6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581) → CCTV 열람결과 민원인에 내용전달</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -2159,16 +2793,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>44718.46736111111</v>
+        <v>44720.75694444445</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>131-2001 홈넷 화재경보발생 → IP통화 -&gt; 냄비태움 -&gt; 환기요청</t>
+          <t>101-301 아직 공사중이라는 민원(민원인: 010-4403-8911) → 공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -2181,16 +2815,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>44718.53402777778</v>
+        <v>44720.81180555555</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>121-103 비상_홈넷 → IP확인결과 -&gt; 입주민 오작동</t>
+          <t>110-1502 위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함 → 1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -2203,16 +2837,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>44718.56319444445</v>
+        <v>44720.8125</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>116-1602 28버7451(010-4117-9415) 차량 문열림 → 정찬선 대원 -&gt; 차주에게 전달완료</t>
+          <t>126동 화장실, 베란다, 주방 흡연금지 안내 → 방송완료</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -2225,16 +2859,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>44718.56944444445</v>
+        <v>44720.81736111111</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>118-1901 160버3800(010-2000-0515) 차량 문열림 → 차주와 통화후 처리완료</t>
+          <t>121동 주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823) → 5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -2247,16 +2881,16 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>44718.57638888889</v>
+        <v>44720.85208333333</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>124-1203 124-1303호에서 소음이 난다는 민원(정확한 시간,날짜는 불분명) → 6초소 정찬선 대원 출동 -&gt; 1303호 소음없고 1203는 부재중 -&gt; 초소 복귀</t>
+          <t>134-201 세대현관문앞 복도등 고장 → ERP 등록 -&gt; 기전실 연락</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -2267,8 +2901,140 @@
       <c r="I12" s="3" t="n"/>
       <c r="J12" s="3" t="n"/>
     </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>44720.85555555556</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>104-1F 카드키X → 순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>44720.87152777778</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>20:55</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>117-2702 방범_금고  → 기기오작동(금고없음)</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>44720.88680555556</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>21:17</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>104-1F,B1,B2 104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실) → 정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>44720.89166666667</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>111-2702 111-2702 주위에서 타는 냄새가 난다는 민원 → 2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>44720.92916666667</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>22:18</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>115-902 109오 9518 차량이 장애인 구역에 주차 되었다는 민원 → IP통화 -&gt; 이동조치 완료</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>44720.93958333333</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>22:33</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>119-2402 비상_욕실 → 6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
@@ -2281,6 +3047,12 @@
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/report.xlsx
+++ b/report.xlsx
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,97 +589,97 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>44720.68055555555</v>
+        <v>44721.66944444444</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>상황실</t>
+          <t>131-302</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>습득물</t>
+          <t>층간소음</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>힙색(내용물: 휴대폰) 인수인계 받음</t>
+          <t xml:space="preserve">마이크 등을 사용하는 윗집 또는 이웃집에 방문해서 정중하게 양해 말씀 부탁합니다. 아파트너 층간소음 민원건 </t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>상황실 보관중</t>
+          <t>A조 인수인계</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>이종화</t>
+          <t>윤현석</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>완료A</t>
+          <t>인수인계</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>16:20 상황실 습득물 힙색(내용물: 휴대폰) 인수인계 받음 → 상황실 보관중</t>
+          <t>16:04 131-302 층간소음 마이크 등을 사용하는 윗집 또는 이웃집에 방문해서 정중하게 양해 말씀 부탁합니다. 아파트너 층간소음 민원건  → A조 인수인계</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>16:20  생활업무 습득물 상황실 힙색(내용물: 휴대폰) 인수인계 받음 → 상황실 보관중</t>
+          <t>16:04  민원업무 층간소음 131-302 마이크 등을 사용하는 윗집 또는 이웃집에 방문해서 정중하게 양해 말씀 부탁합니다. 아파트너 층간소음 민원건  → A조 인수인계</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>44720.68055555555</v>
+        <v>44721.69027777778</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>상황실</t>
+          <t>116-1002</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>보관품</t>
+          <t>입주민응대</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>입실 예정자 보관품(가방) 인수인계 받음</t>
+          <t>재활용 분리수거시 하나 잘못 분류했는데, 초소대원이(주간조) 불친절하게 화를 내면서 지적했다고 함</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>상황실 보관중 -&gt; 17:19 찾아감</t>
+          <t>초소 대원에게 입주민에게 친절하게 응대하도록 전달하겠다고 안내 -&gt; 6초소 내용전달(초소 각 조간 인수인계 예정)</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -694,50 +694,50 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>16:20 상황실 보관품 입실 예정자 보관품(가방) 인수인계 받음 → 상황실 보관중 -&gt; 17:19 찾아감</t>
+          <t>16:34 116-1002 입주민응대 재활용 분리수거시 하나 잘못 분류했는데, 초소대원이(주간조) 불친절하게 화를 내면서 지적했다고 함 → 초소 대원에게 입주민에게 친절하게 응대하도록 전달하겠다고 안내 -&gt; 6초소 내용전달(초소 각 조간 인수인계 예정)</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>16:20  생활업무 보관품 상황실 입실 예정자 보관품(가방) 인수인계 받음 → 상황실 보관중 -&gt; 17:19 찾아감</t>
+          <t>16:34  민원업무 입주민응대 116-1002 재활용 분리수거시 하나 잘못 분류했는데, 초소대원이(주간조) 불친절하게 화를 내면서 지적했다고 함 → 초소 대원에게 입주민에게 친절하게 응대하도록 전달하겠다고 안내 -&gt; 6초소 내용전달(초소 각 조간 인수인계 예정)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44720.68402777778</v>
+        <v>44721.69444444445</v>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>140-1호기</t>
+          <t>지원센터</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>민원업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>오물</t>
+          <t>방문증롤</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>승강기내에 오물이 있다는 민원(민원인: 010-3543-2550)</t>
+          <t>방문증 발급용 롤 재고확인 요청(지원센터)</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
+          <t>재고 9롤 확인 -&gt; 지원센터 내용전달</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -752,50 +752,50 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>16:25 140-1호기 오물 승강기내에 오물이 있다는 민원(민원인: 010-3543-2550) → 9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
+          <t>16:40 지원센터 방문증롤 방문증 발급용 롤 재고확인 요청(지원센터) → 재고 9롤 확인 -&gt; 지원센터 내용전달</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>16:25  민원업무 오물 140-1호기 승강기내에 오물이 있다는 민원(민원인: 010-3543-2550) → 9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
+          <t>16:40  관제업무 방문증롤 지원센터 방문증 발급용 롤 재고확인 요청(지원센터) → 재고 9롤 확인 -&gt; 지원센터 내용전달</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44720.68958333333</v>
+        <v>44721.71527777778</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>122-1001</t>
+          <t>지원센터</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>민원업무</t>
+          <t>생활업무</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>층간소음</t>
+          <t>입차요청</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>위층에 아이들이 뛰어서 소음이 심하다는 민원</t>
+          <t>내일(6/10) 오전 07~08시경 냉동기 세관 업체차량 지상입차 요청</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>1101호 세대 통화 -&gt; 자제요청</t>
+          <t>8초소 내용전달</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -810,50 +810,50 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>16:33 122-1001 층간소음 위층에 아이들이 뛰어서 소음이 심하다는 민원 → 1101호 세대 통화 -&gt; 자제요청</t>
+          <t>17:10 지원센터 입차요청 내일(6/10) 오전 07~08시경 냉동기 세관 업체차량 지상입차 요청 → 8초소 내용전달</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>16:33  민원업무 층간소음 122-1001 위층에 아이들이 뛰어서 소음이 심하다는 민원 → 1101호 세대 통화 -&gt; 자제요청</t>
+          <t>17:10  생활업무 입차요청 지원센터 내일(6/10) 오전 07~08시경 냉동기 세관 업체차량 지상입차 요청 → 8초소 내용전달</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>44720.70069444444</v>
+        <v>44721.72222222222</v>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>134-1203</t>
+          <t>131-302</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>관제업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>홈넷</t>
+          <t>층간소음</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>비상_안방</t>
+          <t>마이크 등 사용 세대 방문 요청 민원</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>IP 연락 -&gt; 입주민 오작동</t>
+          <t>7초소 우창래 대원 출동 -&gt; 402호, 202호 방문하여 확인결과 모두 본인집이 아니라고 함 -&gt; 민원인에 내용전달 및 19:30 방송예정 및 추후 새벽이라도 소음발생시 즉각 상황실에 연락주시면 출동한다고 안내해 드림</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
@@ -868,50 +868,50 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>16:49 134-1203 홈넷 비상_안방 → IP 연락 -&gt; 입주민 오작동</t>
+          <t>17:20 131-302 층간소음 마이크 등 사용 세대 방문 요청 민원 → 7초소 우창래 대원 출동 -&gt; 402호, 202호 방문하여 확인결과 모두 본인집이 아니라고 함 -&gt; 민원인에 내용전달 및 19:30 방송예정 및 추후 새벽이라도 소음발생시 즉각 상황실에 연락주시면 출동한다고 안내해 드림</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>16:49  관제업무 홈넷 134-1203 비상_안방 → IP 연락 -&gt; 입주민 오작동</t>
+          <t>17:20  민원업무 층간소음 131-302 마이크 등 사용 세대 방문 요청 민원 → 7초소 우창래 대원 출동 -&gt; 402호, 202호 방문하여 확인결과 모두 본인집이 아니라고 함 -&gt; 민원인에 내용전달 및 19:30 방송예정 및 추후 새벽이라도 소음발생시 즉각 상황실에 연락주시면 출동한다고 안내해 드림</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>44720.72013888889</v>
+        <v>44721.72777777778</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>134-2302</t>
+          <t>140-B1F ST</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>민원업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>CCTV</t>
+          <t>화재경보</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581)</t>
+          <t>3공구 수신기 화재경보 발생</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>CCTV 열람결과 민원인에 내용전달</t>
+          <t>9초소 허명 대원 출동 -&gt; 방재과장님 내용전달</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -926,50 +926,50 @@
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>17:17 134-2302 CCTV 6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581) → CCTV 열람결과 민원인에 내용전달</t>
+          <t>17:28 140-B1F ST 화재경보 3공구 수신기 화재경보 발생 → 9초소 허명 대원 출동 -&gt; 방재과장님 내용전달</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>17:17  민원업무 CCTV 134-2302 6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581) → CCTV 열람결과 민원인에 내용전달</t>
+          <t>17:28  관제업무 화재경보 140-B1F ST 3공구 수신기 화재경보 발생 → 9초소 허명 대원 출동 -&gt; 방재과장님 내용전달</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>44720.75694444445</v>
+        <v>44721.73055555556</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>101-301</t>
+          <t>117-302</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>민원업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>공사소음</t>
+          <t>홈넷</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>아직 공사중이라는 민원(민원인: 010-4403-8911)</t>
+          <t>방범_금고</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
+          <t>6초소 문완수 대원 출동 -&gt; 특이사항 없음 -&gt; 기기 오작동</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
@@ -984,30 +984,30 @@
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>18:10 101-301 공사소음 아직 공사중이라는 민원(민원인: 010-4403-8911) → 공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
+          <t>17:32 117-302 홈넷 방범_금고 → 6초소 문완수 대원 출동 -&gt; 특이사항 없음 -&gt; 기기 오작동</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>18:10  민원업무 공사소음 101-301 아직 공사중이라는 민원(민원인: 010-4403-8911) → 공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
+          <t>17:32  관제업무 홈넷 117-302 방범_금고 → 6초소 문완수 대원 출동 -&gt; 특이사항 없음 -&gt; 기기 오작동</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>44720.81180555555</v>
+        <v>44721.73611111111</v>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>110-1502</t>
+          <t>베리타스상가</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>층간소음</t>
+          <t>이동주차</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함</t>
+          <t>B1 자이안센터에서 홈플러스가는 길에 통행불편하는 민원</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
+          <t>109오9518(105-902, 010-6727-3424) 차량 확인 -&gt; 차량 이동 완료</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
@@ -1042,50 +1042,50 @@
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>19:29 110-1502 층간소음 위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함 → 1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
+          <t>17:40 베리타스상가 이동주차 B1 자이안센터에서 홈플러스가는 길에 통행불편하는 민원 → 109오9518(105-902, 010-6727-3424) 차량 확인 -&gt; 차량 이동 완료</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>19:29  민원업무 층간소음 110-1502 위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함 → 1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
+          <t>17:40  민원업무 이동주차 베리타스상가 B1 자이안센터에서 홈플러스가는 길에 통행불편하는 민원 → 109오9518(105-902, 010-6727-3424) 차량 확인 -&gt; 차량 이동 완료</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>44720.8125</v>
+        <v>44721.73958333334</v>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>126동</t>
+          <t>110-1502</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>관제업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>안내방송</t>
+          <t>층간소음</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>화장실, 베란다, 주방 흡연금지 안내</t>
+          <t>위층에서 쿵쿵 소리가 심하다는 민원(민원인: 010-7271-5011)</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>방송완료</t>
+          <t>1602호 IP 연락 -&gt; 자제요청 -&gt; 본인 세대에서 나는 소음아니라고 함. IP 자제요청</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
@@ -1100,30 +1100,30 @@
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>19:30 126동 안내방송 화장실, 베란다, 주방 흡연금지 안내 → 방송완료</t>
+          <t>17:45 110-1502 층간소음 위층에서 쿵쿵 소리가 심하다는 민원(민원인: 010-7271-5011) → 1602호 IP 연락 -&gt; 자제요청 -&gt; 본인 세대에서 나는 소음아니라고 함. IP 자제요청</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>19:30  관제업무 안내방송 126동 화장실, 베란다, 주방 흡연금지 안내 → 방송완료</t>
+          <t>17:45  민원업무 층간소음 110-1502 위층에서 쿵쿵 소리가 심하다는 민원(민원인: 010-7271-5011) → 1602호 IP 연락 -&gt; 자제요청 -&gt; 본인 세대에서 나는 소음아니라고 함. IP 자제요청</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>44720.81736111111</v>
+        <v>44721.74444444444</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>121동</t>
+          <t>121동 B2</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -1133,17 +1133,17 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>애완견</t>
+          <t>오물</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823)</t>
+          <t>지하주차장 63, 64 기둥사이에 고양이 분변이 있어서 처리요청 및 근본적인 대책 요구</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
+          <t xml:space="preserve">5초소 김덕근 대원 출동 -&gt; 오물처리 완료 </t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
@@ -1158,50 +1158,50 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>19:37 121동 애완견 주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823) → 5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
+          <t xml:space="preserve">17:52 121동 B2 오물 지하주차장 63, 64 기둥사이에 고양이 분변이 있어서 처리요청 및 근본적인 대책 요구 → 5초소 김덕근 대원 출동 -&gt; 오물처리 완료 </t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t>19:37  민원업무 애완견 121동 주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823) → 5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
+          <t xml:space="preserve">17:52  민원업무 오물 121동 B2 지하주차장 63, 64 기둥사이에 고양이 분변이 있어서 처리요청 및 근본적인 대책 요구 → 5초소 김덕근 대원 출동 -&gt; 오물처리 완료 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>44720.85208333333</v>
+        <v>44721.74722222222</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>134-201</t>
+          <t>140-B1</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>복도등</t>
+          <t>공동현관문</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>세대현관문앞 복도등 고장</t>
+          <t>수동 개방되어 있어 CCTV 열람 요청(지원대리)</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>ERP 등록 -&gt; 기전실 연락</t>
+          <t>CCTV 열람결과 140-2601 공사업체에서 수동 개방한 것으로 확인 -&gt; 지원대리 내용전달</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
@@ -1216,30 +1216,30 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>20:27 134-201 복도등 세대현관문앞 복도등 고장 → ERP 등록 -&gt; 기전실 연락</t>
+          <t>17:56 140-B1 공동현관문 수동 개방되어 있어 CCTV 열람 요청(지원대리) → CCTV 열람결과 140-2601 공사업체에서 수동 개방한 것으로 확인 -&gt; 지원대리 내용전달</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>20:27  생활업무 복도등 134-201 세대현관문앞 복도등 고장 → ERP 등록 -&gt; 기전실 연락</t>
+          <t>17:56  관제업무 공동현관문 140-B1 수동 개방되어 있어 CCTV 열람 요청(지원대리) → CCTV 열람결과 140-2601 공사업체에서 수동 개방한 것으로 확인 -&gt; 지원대리 내용전달</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>44720.85555555556</v>
+        <v>44721.74861111111</v>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>20:32</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>104-1F</t>
+          <t>상황실</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>공동현관문</t>
+          <t>카드키</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>카드키X</t>
+          <t>광고업체에게 카드키 수령하고 신분증 반납 요청(지원센터)</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
+          <t>광고업체 신분증 상황실 보관중 -&gt; 19:23 카드키 수령 및 신분증 반납 완료 -&gt; 카드키 지원센터 전달 예정</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">
@@ -1269,35 +1269,35 @@
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t>완료A</t>
+          <t>인수인계</t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>20:32 104-1F 공동현관문 카드키X → 순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
+          <t>17:58 상황실 카드키 광고업체에게 카드키 수령하고 신분증 반납 요청(지원센터) → 광고업체 신분증 상황실 보관중 -&gt; 19:23 카드키 수령 및 신분증 반납 완료 -&gt; 카드키 지원센터 전달 예정</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>20:32  관제업무 공동현관문 104-1F 카드키X → 순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
+          <t>17:58  관제업무 카드키 상황실 광고업체에게 카드키 수령하고 신분증 반납 요청(지원센터) → 광고업체 신분증 상황실 보관중 -&gt; 19:23 카드키 수령 및 신분증 반납 완료 -&gt; 카드키 지원센터 전달 예정</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>44720.87152777778</v>
+        <v>44721.77569444444</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>20:55</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>117-2702</t>
+          <t>140-B1F ST</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1307,22 +1307,22 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>홈넷</t>
+          <t>화재경보</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">방범_금고 </t>
+          <t>3공구 수신기 화재경보 발생</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>기기오작동(금고없음)</t>
+          <t>방재과장님 내용전달</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1332,55 +1332,55 @@
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>20:55 117-2702 홈넷 방범_금고  → 기기오작동(금고없음)</t>
+          <t>18:37 140-B1F ST 화재경보 3공구 수신기 화재경보 발생 → 방재과장님 내용전달</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>20:55  관제업무 홈넷 117-2702 방범_금고  → 기기오작동(금고없음)</t>
+          <t>18:37  관제업무 화재경보 140-B1F ST 3공구 수신기 화재경보 발생 → 방재과장님 내용전달</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>44720.88680555556</v>
+        <v>44721.78472222222</v>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>21:17</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>104-1F,B1,B2</t>
+          <t>말놀이터</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>관제업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>공동현관문</t>
+          <t>시설물</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실)</t>
+          <t>한쪽 그네는 그네의자가 기울어져 있고, 한쪽 그네는 그네의자가 균열이 있어서 물이 고였다가 스며나온다고 점검 요청 민원</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
+          <t>ERP 등록 -&gt; 기전실 및 8초소 내용전달</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1390,55 +1390,55 @@
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>21:17 104-1F,B1,B2 공동현관문 104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실) → 정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
+          <t>18:50 말놀이터 시설물 한쪽 그네는 그네의자가 기울어져 있고, 한쪽 그네는 그네의자가 균열이 있어서 물이 고였다가 스며나온다고 점검 요청 민원 → ERP 등록 -&gt; 기전실 및 8초소 내용전달</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>21:17  관제업무 공동현관문 104-1F,B1,B2 104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실) → 정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
+          <t>18:50  민원업무 시설물 말놀이터 한쪽 그네는 그네의자가 기울어져 있고, 한쪽 그네는 그네의자가 균열이 있어서 물이 고였다가 스며나온다고 점검 요청 민원 → ERP 등록 -&gt; 기전실 및 8초소 내용전달</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>44720.89166666667</v>
+        <v>44721.8125</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>21:24</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>111-2702</t>
+          <t>전동</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>민원업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>타는냄새</t>
+          <t>안내방송</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>111-2702 주위에서 타는 냄새가 난다는 민원</t>
+          <t>새벽에 소음유발행위 금지</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
+          <t>방송완료</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>이현석</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1448,128 +1448,12 @@
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>21:24 111-2702 타는냄새 111-2702 주위에서 타는 냄새가 난다는 민원 → 2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
+          <t>19:30 전동 안내방송 새벽에 소음유발행위 금지 → 방송완료</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>21:24  민원업무 타는냄새 111-2702 111-2702 주위에서 타는 냄새가 난다는 민원 → 2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>476</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>44720.92916666667</v>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>22:18</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>115-902</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>민원업무</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>장애인차량</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>109오 9518 차량이 장애인 구역에 주차 되었다는 민원</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>IP통화 -&gt; 이동조치 완료</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>이현석</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>완료A</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>22:18 115-902 장애인차량 109오 9518 차량이 장애인 구역에 주차 되었다는 민원 → IP통화 -&gt; 이동조치 완료</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>22:18  민원업무 장애인차량 115-902 109오 9518 차량이 장애인 구역에 주차 되었다는 민원 → IP통화 -&gt; 이동조치 완료</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>477</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>44720.93958333333</v>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>22:33</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>119-2402</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>관제업무</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>홈넷</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>비상_욕실</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>이현석</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>완료A</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>22:33 119-2402 홈넷 비상_욕실 → 6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>22:33  관제업무 홈넷 119-2402 비상_욕실 → 6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
+          <t>19:30  관제업무 안내방송 전동 새벽에 소음유발행위 금지 → 방송완료</t>
         </is>
       </c>
     </row>
@@ -1694,19 +1578,19 @@
         </is>
       </c>
       <c r="B4" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="n">
         <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>2</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>0</v>
@@ -1804,16 +1688,16 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>0</v>
@@ -1841,7 +1725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1899,11 +1783,11 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>44720.70069444444</v>
+        <v>44721.69444444445</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1913,12 +1797,12 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>홈넷</t>
+          <t>방문증롤</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>16:49 134-1203 홈넷 비상_안방 → IP 연락 -&gt; 입주민 오작동</t>
+          <t>16:40 지원센터 방문증롤 방문증 발급용 롤 재고확인 요청(지원센터) → 재고 9롤 확인 -&gt; 지원센터 내용전달</t>
         </is>
       </c>
       <c r="F2" s="3" t="n"/>
@@ -1939,11 +1823,11 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>44720.8125</v>
+        <v>44721.72777777778</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1953,12 +1837,12 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>안내방송</t>
+          <t>화재경보</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>19:30 126동 안내방송 화장실, 베란다, 주방 흡연금지 안내 → 방송완료</t>
+          <t>17:28 140-B1F ST 화재경보 3공구 수신기 화재경보 발생 → 9초소 허명 대원 출동 -&gt; 방재과장님 내용전달</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -1979,11 +1863,11 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>44720.85555555556</v>
+        <v>44721.73055555556</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20:32</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1993,12 +1877,12 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>공동현관문</t>
+          <t>홈넷</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>20:32 104-1F 공동현관문 카드키X → 순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
+          <t>17:32 117-302 홈넷 방범_금고 → 6초소 문완수 대원 출동 -&gt; 특이사항 없음 -&gt; 기기 오작동</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -2019,11 +1903,11 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>44720.87152777778</v>
+        <v>44721.74722222222</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20:55</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -2033,12 +1917,12 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>홈넷</t>
+          <t>공동현관문</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>20:55 117-2702 홈넷 방범_금고  → 기기오작동(금고없음)</t>
+          <t>17:56 140-B1 공동현관문 수동 개방되어 있어 CCTV 열람 요청(지원대리) → CCTV 열람결과 140-2601 공사업체에서 수동 개방한 것으로 확인 -&gt; 지원대리 내용전달</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
@@ -2059,11 +1943,11 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>44720.88680555556</v>
+        <v>44721.74861111111</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>21:17</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -2073,12 +1957,12 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>공동현관문</t>
+          <t>카드키</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>21:17 104-1F,B1,B2 공동현관문 104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실) → 정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
+          <t>17:58 상황실 카드키 광고업체에게 카드키 수령하고 신분증 반납 요청(지원센터) → 광고업체 신분증 상황실 보관중 -&gt; 19:23 카드키 수령 및 신분증 반납 완료 -&gt; 카드키 지원센터 전달 예정</t>
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
@@ -2099,11 +1983,11 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>44720.93958333333</v>
+        <v>44721.77569444444</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>22:33</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -2113,12 +1997,12 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>홈넷</t>
+          <t>화재경보</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>22:33 119-2402 홈넷 비상_욕실 → 6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
+          <t>18:37 140-B1F ST 화재경보 3공구 수신기 화재경보 발생 → 방재과장님 내용전달</t>
         </is>
       </c>
       <c r="F7" s="3" t="n"/>
@@ -2139,26 +2023,26 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>44720.68055555555</v>
+        <v>44721.8125</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>관제업무</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>습득물</t>
+          <t>안내방송</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>16:20 상황실 습득물 힙색(내용물: 휴대폰) 인수인계 받음 → 상황실 보관중</t>
+          <t>19:30 전동 안내방송 새벽에 소음유발행위 금지 → 방송완료</t>
         </is>
       </c>
       <c r="F8" s="3" t="n"/>
@@ -2179,11 +2063,11 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>44720.68055555555</v>
+        <v>44721.71527777778</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -2193,12 +2077,12 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>보관품</t>
+          <t>입차요청</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>16:20 상황실 보관품 입실 예정자 보관품(가방) 인수인계 받음 → 상황실 보관중 -&gt; 17:19 찾아감</t>
+          <t>17:10 지원센터 입차요청 내일(6/10) 오전 07~08시경 냉동기 세관 업체차량 지상입차 요청 → 8초소 내용전달</t>
         </is>
       </c>
       <c r="F9" s="3" t="n"/>
@@ -2219,26 +2103,26 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>44720.85208333333</v>
+        <v>44721.66944444444</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>생활업무</t>
+          <t>민원업무</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>복도등</t>
+          <t>층간소음</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>20:27 134-201 복도등 세대현관문앞 복도등 고장 → ERP 등록 -&gt; 기전실 연락</t>
+          <t>16:04 131-302 층간소음 마이크 등을 사용하는 윗집 또는 이웃집에 방문해서 정중하게 양해 말씀 부탁합니다. 아파트너 층간소음 민원건  → A조 인수인계</t>
         </is>
       </c>
       <c r="F10" s="3" t="n"/>
@@ -2259,11 +2143,11 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>44720.68402777778</v>
+        <v>44721.69027777778</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2273,12 +2157,12 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>오물</t>
+          <t>입주민응대</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>16:25 140-1호기 오물 승강기내에 오물이 있다는 민원(민원인: 010-3543-2550) → 9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
+          <t>16:34 116-1002 입주민응대 재활용 분리수거시 하나 잘못 분류했는데, 초소대원이(주간조) 불친절하게 화를 내면서 지적했다고 함 → 초소 대원에게 입주민에게 친절하게 응대하도록 전달하겠다고 안내 -&gt; 6초소 내용전달(초소 각 조간 인수인계 예정)</t>
         </is>
       </c>
       <c r="F11" s="3" t="n"/>
@@ -2299,11 +2183,11 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>44720.68958333333</v>
+        <v>44721.72222222222</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2318,7 +2202,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>16:33 122-1001 층간소음 위층에 아이들이 뛰어서 소음이 심하다는 민원 → 1101호 세대 통화 -&gt; 자제요청</t>
+          <t>17:20 131-302 층간소음 마이크 등 사용 세대 방문 요청 민원 → 7초소 우창래 대원 출동 -&gt; 402호, 202호 방문하여 확인결과 모두 본인집이 아니라고 함 -&gt; 민원인에 내용전달 및 19:30 방송예정 및 추후 새벽이라도 소음발생시 즉각 상황실에 연락주시면 출동한다고 안내해 드림</t>
         </is>
       </c>
       <c r="F12" s="3" t="n"/>
@@ -2339,11 +2223,11 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>44720.72013888889</v>
+        <v>44721.73611111111</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2353,12 +2237,12 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>CCTV</t>
+          <t>이동주차</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>17:17 134-2302 CCTV 6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581) → CCTV 열람결과 민원인에 내용전달</t>
+          <t>17:40 베리타스상가 이동주차 B1 자이안센터에서 홈플러스가는 길에 통행불편하는 민원 → 109오9518(105-902, 010-6727-3424) 차량 확인 -&gt; 차량 이동 완료</t>
         </is>
       </c>
       <c r="F13" s="3" t="n"/>
@@ -2379,11 +2263,11 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>44720.75694444445</v>
+        <v>44721.73958333334</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2393,12 +2277,12 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>공사소음</t>
+          <t>층간소음</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>18:10 101-301 공사소음 아직 공사중이라는 민원(민원인: 010-4403-8911) → 공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
+          <t>17:45 110-1502 층간소음 위층에서 쿵쿵 소리가 심하다는 민원(민원인: 010-7271-5011) → 1602호 IP 연락 -&gt; 자제요청 -&gt; 본인 세대에서 나는 소음아니라고 함. IP 자제요청</t>
         </is>
       </c>
       <c r="F14" s="3" t="n"/>
@@ -2419,11 +2303,11 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>44720.81180555555</v>
+        <v>44721.74444444444</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -2433,12 +2317,12 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>층간소음</t>
+          <t>오물</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>19:29 110-1502 층간소음 위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함 → 1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
+          <t xml:space="preserve">17:52 121동 B2 오물 지하주차장 63, 64 기둥사이에 고양이 분변이 있어서 처리요청 및 근본적인 대책 요구 → 5초소 김덕근 대원 출동 -&gt; 오물처리 완료 </t>
         </is>
       </c>
       <c r="F15" s="3" t="n"/>
@@ -2459,11 +2343,11 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>44720.81736111111</v>
+        <v>44721.78472222222</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2473,12 +2357,12 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>애완견</t>
+          <t>시설물</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>19:37 121동 애완견 주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823) → 5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
+          <t>18:50 말놀이터 시설물 한쪽 그네는 그네의자가 기울어져 있고, 한쪽 그네는 그네의자가 균열이 있어서 물이 고였다가 스며나온다고 점검 요청 민원 → ERP 등록 -&gt; 기전실 및 8초소 내용전달</t>
         </is>
       </c>
       <c r="F16" s="3" t="n"/>
@@ -2497,88 +2381,8 @@
       <c r="S16" s="3" t="n"/>
       <c r="T16" s="3" t="n"/>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>44720.89166666667</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>21:24</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>민원업무</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>타는냄새</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>21:24 111-2702 타는냄새 111-2702 주위에서 타는 냄새가 난다는 민원 → 2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="n"/>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="3" t="n"/>
-      <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="3" t="n"/>
-      <c r="R17" s="3" t="n"/>
-      <c r="S17" s="3" t="n"/>
-      <c r="T17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>44720.92916666667</v>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>22:18</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>민원업무</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>장애인차량</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>22:18 115-902 장애인차량 109오 9518 차량이 장애인 구역에 주차 되었다는 민원 → IP통화 -&gt; 이동조치 완료</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="n"/>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="3" t="n"/>
-      <c r="P18" s="3" t="n"/>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="3" t="n"/>
-      <c r="S18" s="3" t="n"/>
-      <c r="T18" s="3" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
     <mergeCell ref="E1:T1"/>
     <mergeCell ref="E2:T2"/>
     <mergeCell ref="E3:T3"/>
@@ -2595,8 +2399,6 @@
     <mergeCell ref="E14:T14"/>
     <mergeCell ref="E15:T15"/>
     <mergeCell ref="E16:T16"/>
-    <mergeCell ref="E17:T17"/>
-    <mergeCell ref="E18:T18"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:F100">
     <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="관제">
@@ -2622,7 +2424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2661,16 +2463,16 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>44720.68055555555</v>
+        <v>44721.66944444444</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>상황실 힙색(내용물: 휴대폰) 인수인계 받음 → 상황실 보관중</t>
+          <t>131-302 마이크 등을 사용하는 윗집 또는 이웃집에 방문해서 정중하게 양해 말씀 부탁합니다. 아파트너 층간소음 민원건  → A조 인수인계</t>
         </is>
       </c>
       <c r="D2" s="3" t="n"/>
@@ -2683,16 +2485,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>44720.68055555555</v>
+        <v>44721.69027777778</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>상황실 입실 예정자 보관품(가방) 인수인계 받음 → 상황실 보관중 -&gt; 17:19 찾아감</t>
+          <t>116-1002 재활용 분리수거시 하나 잘못 분류했는데, 초소대원이(주간조) 불친절하게 화를 내면서 지적했다고 함 → 초소 대원에게 입주민에게 친절하게 응대하도록 전달하겠다고 안내 -&gt; 6초소 내용전달(초소 각 조간 인수인계 예정)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
@@ -2705,16 +2507,16 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>44720.68402777778</v>
+        <v>44721.69444444445</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>140-1호기 승강기내에 오물이 있다는 민원(민원인: 010-3543-2550) → 9초소 대근 이대진 대원 출동 -&gt; 승강기내 및 복도 청소 완료</t>
+          <t>지원센터 방문증 발급용 롤 재고확인 요청(지원센터) → 재고 9롤 확인 -&gt; 지원센터 내용전달</t>
         </is>
       </c>
       <c r="D4" s="3" t="n"/>
@@ -2727,16 +2529,16 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>44720.68958333333</v>
+        <v>44721.71527777778</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>122-1001 위층에 아이들이 뛰어서 소음이 심하다는 민원 → 1101호 세대 통화 -&gt; 자제요청</t>
+          <t>지원센터 내일(6/10) 오전 07~08시경 냉동기 세관 업체차량 지상입차 요청 → 8초소 내용전달</t>
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
@@ -2749,16 +2551,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>44720.70069444444</v>
+        <v>44721.72222222222</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>134-1203 비상_안방 → IP 연락 -&gt; 입주민 오작동</t>
+          <t>131-302 마이크 등 사용 세대 방문 요청 민원 → 7초소 우창래 대원 출동 -&gt; 402호, 202호 방문하여 확인결과 모두 본인집이 아니라고 함 -&gt; 민원인에 내용전달 및 19:30 방송예정 및 추후 새벽이라도 소음발생시 즉각 상황실에 연락주시면 출동한다고 안내해 드림</t>
         </is>
       </c>
       <c r="D6" s="3" t="n"/>
@@ -2771,16 +2573,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>44720.72013888889</v>
+        <v>44721.72777777778</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>134-2302 6/2 택배 배송관련 CCTV 6/7 열람요청(민원인: 010-3778-6581) → CCTV 열람결과 민원인에 내용전달</t>
+          <t>140-B1F ST 3공구 수신기 화재경보 발생 → 9초소 허명 대원 출동 -&gt; 방재과장님 내용전달</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -2793,16 +2595,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>44720.75694444445</v>
+        <v>44721.73055555556</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>101-301 아직 공사중이라는 민원(민원인: 010-4403-8911) → 공사업체(010-4304-0613)와 통화하여 공사중지 및 공사시간 재안내</t>
+          <t>117-302 방범_금고 → 6초소 문완수 대원 출동 -&gt; 특이사항 없음 -&gt; 기기 오작동</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -2815,16 +2617,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>44720.81180555555</v>
+        <v>44721.73611111111</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>110-1502 위층에서 쿵쿵대는 소음이 난다는 민원(민원인: 010-7271-5011) -&gt; 민원 세대 밝히지 말아달라고 함 → 1602호 IP 연락 안받음 -&gt; 민원인 내용전달 -&gt; 현재는 조용해 졌다며 추후 소음발생시 연락하기로 함</t>
+          <t>베리타스상가 B1 자이안센터에서 홈플러스가는 길에 통행불편하는 민원 → 109오9518(105-902, 010-6727-3424) 차량 확인 -&gt; 차량 이동 완료</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -2837,16 +2639,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>44720.8125</v>
+        <v>44721.73958333334</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>126동 화장실, 베란다, 주방 흡연금지 안내 → 방송완료</t>
+          <t>110-1502 위층에서 쿵쿵 소리가 심하다는 민원(민원인: 010-7271-5011) → 1602호 IP 연락 -&gt; 자제요청 -&gt; 본인 세대에서 나는 소음아니라고 함. IP 자제요청</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -2859,16 +2661,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>44720.81736111111</v>
+        <v>44721.74444444444</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>121동 주인없는 애완견이 1층 승강기 앞에 있다는 민원(민원인: 010-7366-0823) → 5초소 김덕근 대원 출동 -&gt; 주인 찾아감</t>
+          <t xml:space="preserve">121동 B2 지하주차장 63, 64 기둥사이에 고양이 분변이 있어서 처리요청 및 근본적인 대책 요구 → 5초소 김덕근 대원 출동 -&gt; 오물처리 완료 </t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -2881,16 +2683,16 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>44720.85208333333</v>
+        <v>44721.74722222222</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>134-201 세대현관문앞 복도등 고장 → ERP 등록 -&gt; 기전실 연락</t>
+          <t>140-B1 수동 개방되어 있어 CCTV 열람 요청(지원대리) → CCTV 열람결과 140-2601 공사업체에서 수동 개방한 것으로 확인 -&gt; 지원대리 내용전달</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -2903,16 +2705,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>44720.85555555556</v>
+        <v>44721.74861111111</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>20:32</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>104-1F 카드키X → 순찰 정찬선 대원 출동 -&gt; 안내문 부착 -&gt; ERP등록</t>
+          <t>상황실 광고업체에게 카드키 수령하고 신분증 반납 요청(지원센터) → 광고업체 신분증 상황실 보관중 -&gt; 19:23 카드키 수령 및 신분증 반납 완료 -&gt; 카드키 지원센터 전달 예정</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -2925,16 +2727,16 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>44720.87152777778</v>
+        <v>44721.77569444444</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>20:55</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>117-2702 방범_금고  → 기기오작동(금고없음)</t>
+          <t>140-B1F ST 3공구 수신기 화재경보 발생 → 방재과장님 내용전달</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -2947,16 +2749,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>44720.88680555556</v>
+        <v>44721.78472222222</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>21:17</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>104-1F,B1,B2 104-B2,B1,F1 -&gt; 카드키 않됨(메모리 손실) → 정찬선대원 출동 -&gt; 안내장 부착(B2,B1,F1)</t>
+          <t>말놀이터 한쪽 그네는 그네의자가 기울어져 있고, 한쪽 그네는 그네의자가 균열이 있어서 물이 고였다가 스며나온다고 점검 요청 민원 → ERP 등록 -&gt; 기전실 및 8초소 내용전달</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -2969,16 +2771,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>44720.89166666667</v>
+        <v>44721.8125</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>21:24</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>111-2702 111-2702 주위에서 타는 냄새가 난다는 민원 → 2초소 정경호 대원출동 -&gt; 특이사항 없음확인</t>
+          <t>전동 새벽에 소음유발행위 금지 → 방송완료</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -2989,52 +2791,8 @@
       <c r="I16" s="3" t="n"/>
       <c r="J16" s="3" t="n"/>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>44720.92916666667</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>22:18</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>115-902 109오 9518 차량이 장애인 구역에 주차 되었다는 민원 → IP통화 -&gt; 이동조치 완료</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>44720.93958333333</v>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>22:33</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>119-2402 비상_욕실 → 6초소 문완수대원 출동 -&gt;특이사항 없음확인</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
@@ -3051,8 +2809,6 @@
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
